--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_90.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_90.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82679-Reviews-Best_Western_Woodland_Hills_Inn-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>402</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Best-Western-Woodland-Hills-Inn.h1243568.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_90.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_90.xlsx
@@ -5414,7 +5414,7 @@
         <v>2150</v>
       </c>
       <c r="B2" t="n">
-        <v>129532</v>
+        <v>160221</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5489,7 +5489,7 @@
         <v>2150</v>
       </c>
       <c r="B3" t="n">
-        <v>129533</v>
+        <v>160222</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5558,7 +5558,7 @@
         <v>2150</v>
       </c>
       <c r="B4" t="n">
-        <v>129534</v>
+        <v>160223</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5629,7 +5629,7 @@
         <v>2150</v>
       </c>
       <c r="B5" t="n">
-        <v>129535</v>
+        <v>160224</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -5700,7 +5700,7 @@
         <v>2150</v>
       </c>
       <c r="B6" t="n">
-        <v>129536</v>
+        <v>160225</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -5761,7 +5761,7 @@
         <v>2150</v>
       </c>
       <c r="B7" t="n">
-        <v>129537</v>
+        <v>160226</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -5832,7 +5832,7 @@
         <v>2150</v>
       </c>
       <c r="B8" t="n">
-        <v>129538</v>
+        <v>160227</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -5974,7 +5974,7 @@
         <v>2150</v>
       </c>
       <c r="B10" t="n">
-        <v>129539</v>
+        <v>160228</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -6045,7 +6045,7 @@
         <v>2150</v>
       </c>
       <c r="B11" t="n">
-        <v>129540</v>
+        <v>160229</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -6258,7 +6258,7 @@
         <v>2150</v>
       </c>
       <c r="B14" t="n">
-        <v>129541</v>
+        <v>160230</v>
       </c>
       <c r="C14" t="s">
         <v>131</v>
@@ -6390,7 +6390,7 @@
         <v>2150</v>
       </c>
       <c r="B16" t="n">
-        <v>129542</v>
+        <v>160231</v>
       </c>
       <c r="C16" t="s">
         <v>145</v>
@@ -6461,7 +6461,7 @@
         <v>2150</v>
       </c>
       <c r="B17" t="n">
-        <v>129543</v>
+        <v>160232</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -6532,7 +6532,7 @@
         <v>2150</v>
       </c>
       <c r="B18" t="n">
-        <v>129544</v>
+        <v>160233</v>
       </c>
       <c r="C18" t="s">
         <v>158</v>
@@ -6597,7 +6597,7 @@
         <v>2150</v>
       </c>
       <c r="B19" t="n">
-        <v>129545</v>
+        <v>160234</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
@@ -6668,7 +6668,7 @@
         <v>2150</v>
       </c>
       <c r="B20" t="n">
-        <v>129546</v>
+        <v>160235</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -6739,7 +6739,7 @@
         <v>2150</v>
       </c>
       <c r="B21" t="n">
-        <v>129547</v>
+        <v>160236</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
@@ -6810,7 +6810,7 @@
         <v>2150</v>
       </c>
       <c r="B22" t="n">
-        <v>129548</v>
+        <v>160237</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
@@ -6881,7 +6881,7 @@
         <v>2150</v>
       </c>
       <c r="B23" t="n">
-        <v>129549</v>
+        <v>160238</v>
       </c>
       <c r="C23" t="s">
         <v>194</v>
@@ -6942,7 +6942,7 @@
         <v>2150</v>
       </c>
       <c r="B24" t="n">
-        <v>129550</v>
+        <v>160239</v>
       </c>
       <c r="C24" t="s">
         <v>200</v>
@@ -7013,7 +7013,7 @@
         <v>2150</v>
       </c>
       <c r="B25" t="n">
-        <v>129551</v>
+        <v>160240</v>
       </c>
       <c r="C25" t="s">
         <v>206</v>
@@ -7074,7 +7074,7 @@
         <v>2150</v>
       </c>
       <c r="B26" t="n">
-        <v>129552</v>
+        <v>160241</v>
       </c>
       <c r="C26" t="s">
         <v>213</v>
@@ -7145,7 +7145,7 @@
         <v>2150</v>
       </c>
       <c r="B27" t="n">
-        <v>129553</v>
+        <v>160242</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -7216,7 +7216,7 @@
         <v>2150</v>
       </c>
       <c r="B28" t="n">
-        <v>129554</v>
+        <v>160243</v>
       </c>
       <c r="C28" t="s">
         <v>225</v>
@@ -7348,7 +7348,7 @@
         <v>2150</v>
       </c>
       <c r="B30" t="n">
-        <v>129555</v>
+        <v>160244</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
@@ -7419,7 +7419,7 @@
         <v>2150</v>
       </c>
       <c r="B31" t="n">
-        <v>129556</v>
+        <v>160245</v>
       </c>
       <c r="C31" t="s">
         <v>245</v>
@@ -7555,7 +7555,7 @@
         <v>2150</v>
       </c>
       <c r="B33" t="n">
-        <v>129557</v>
+        <v>160246</v>
       </c>
       <c r="C33" t="s">
         <v>261</v>
@@ -7626,7 +7626,7 @@
         <v>2150</v>
       </c>
       <c r="B34" t="n">
-        <v>129558</v>
+        <v>160247</v>
       </c>
       <c r="C34" t="s">
         <v>267</v>
@@ -7697,7 +7697,7 @@
         <v>2150</v>
       </c>
       <c r="B35" t="n">
-        <v>129559</v>
+        <v>160248</v>
       </c>
       <c r="C35" t="s">
         <v>273</v>
@@ -7768,7 +7768,7 @@
         <v>2150</v>
       </c>
       <c r="B36" t="n">
-        <v>129560</v>
+        <v>160249</v>
       </c>
       <c r="C36" t="s">
         <v>280</v>
@@ -7835,7 +7835,7 @@
         <v>2150</v>
       </c>
       <c r="B37" t="n">
-        <v>129561</v>
+        <v>160250</v>
       </c>
       <c r="C37" t="s">
         <v>288</v>
@@ -7902,7 +7902,7 @@
         <v>2150</v>
       </c>
       <c r="B38" t="n">
-        <v>129562</v>
+        <v>160251</v>
       </c>
       <c r="C38" t="s">
         <v>295</v>
@@ -7967,7 +7967,7 @@
         <v>2150</v>
       </c>
       <c r="B39" t="n">
-        <v>129563</v>
+        <v>160252</v>
       </c>
       <c r="C39" t="s">
         <v>305</v>
@@ -8032,7 +8032,7 @@
         <v>2150</v>
       </c>
       <c r="B40" t="n">
-        <v>129564</v>
+        <v>160253</v>
       </c>
       <c r="C40" t="s">
         <v>315</v>
@@ -8178,7 +8178,7 @@
         <v>2150</v>
       </c>
       <c r="B42" t="n">
-        <v>129565</v>
+        <v>160254</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
@@ -8243,7 +8243,7 @@
         <v>2150</v>
       </c>
       <c r="B43" t="n">
-        <v>129566</v>
+        <v>160255</v>
       </c>
       <c r="C43" t="s">
         <v>340</v>
@@ -8308,7 +8308,7 @@
         <v>2150</v>
       </c>
       <c r="B44" t="n">
-        <v>129567</v>
+        <v>160256</v>
       </c>
       <c r="C44" t="s">
         <v>350</v>
@@ -8377,7 +8377,7 @@
         <v>2150</v>
       </c>
       <c r="B45" t="n">
-        <v>129568</v>
+        <v>160257</v>
       </c>
       <c r="C45" t="s">
         <v>359</v>
@@ -8503,7 +8503,7 @@
         <v>2150</v>
       </c>
       <c r="B47" t="n">
-        <v>129569</v>
+        <v>160258</v>
       </c>
       <c r="C47" t="s">
         <v>372</v>
@@ -8572,7 +8572,7 @@
         <v>2150</v>
       </c>
       <c r="B48" t="n">
-        <v>129570</v>
+        <v>160259</v>
       </c>
       <c r="C48" t="s">
         <v>381</v>
@@ -8633,7 +8633,7 @@
         <v>2150</v>
       </c>
       <c r="B49" t="n">
-        <v>129571</v>
+        <v>160260</v>
       </c>
       <c r="C49" t="s">
         <v>389</v>
@@ -8773,7 +8773,7 @@
         <v>2150</v>
       </c>
       <c r="B51" t="n">
-        <v>129572</v>
+        <v>160261</v>
       </c>
       <c r="C51" t="s">
         <v>408</v>
@@ -8844,7 +8844,7 @@
         <v>2150</v>
       </c>
       <c r="B52" t="n">
-        <v>129573</v>
+        <v>160262</v>
       </c>
       <c r="C52" t="s">
         <v>418</v>
@@ -8915,7 +8915,7 @@
         <v>2150</v>
       </c>
       <c r="B53" t="n">
-        <v>129574</v>
+        <v>160263</v>
       </c>
       <c r="C53" t="s">
         <v>427</v>
@@ -8990,7 +8990,7 @@
         <v>2150</v>
       </c>
       <c r="B54" t="n">
-        <v>129575</v>
+        <v>160264</v>
       </c>
       <c r="C54" t="s">
         <v>436</v>
@@ -9055,7 +9055,7 @@
         <v>2150</v>
       </c>
       <c r="B55" t="n">
-        <v>129576</v>
+        <v>160265</v>
       </c>
       <c r="C55" t="s">
         <v>442</v>
@@ -9130,7 +9130,7 @@
         <v>2150</v>
       </c>
       <c r="B56" t="n">
-        <v>129577</v>
+        <v>160266</v>
       </c>
       <c r="C56" t="s">
         <v>449</v>
@@ -9205,7 +9205,7 @@
         <v>2150</v>
       </c>
       <c r="B57" t="n">
-        <v>129578</v>
+        <v>160267</v>
       </c>
       <c r="C57" t="s">
         <v>459</v>
@@ -9280,7 +9280,7 @@
         <v>2150</v>
       </c>
       <c r="B58" t="n">
-        <v>129579</v>
+        <v>160268</v>
       </c>
       <c r="C58" t="s">
         <v>468</v>
@@ -9345,7 +9345,7 @@
         <v>2150</v>
       </c>
       <c r="B59" t="n">
-        <v>129580</v>
+        <v>160269</v>
       </c>
       <c r="C59" t="s">
         <v>477</v>
@@ -9410,7 +9410,7 @@
         <v>2150</v>
       </c>
       <c r="B60" t="n">
-        <v>129581</v>
+        <v>160270</v>
       </c>
       <c r="C60" t="s">
         <v>487</v>
@@ -9779,7 +9779,7 @@
         <v>2150</v>
       </c>
       <c r="B65" t="n">
-        <v>129582</v>
+        <v>160271</v>
       </c>
       <c r="C65" t="s">
         <v>529</v>
@@ -9923,7 +9923,7 @@
         <v>2150</v>
       </c>
       <c r="B67" t="n">
-        <v>129583</v>
+        <v>160272</v>
       </c>
       <c r="C67" t="s">
         <v>548</v>
@@ -9992,7 +9992,7 @@
         <v>2150</v>
       </c>
       <c r="B68" t="n">
-        <v>129584</v>
+        <v>160273</v>
       </c>
       <c r="C68" t="s">
         <v>555</v>
@@ -10213,7 +10213,7 @@
         <v>2150</v>
       </c>
       <c r="B71" t="n">
-        <v>129585</v>
+        <v>160274</v>
       </c>
       <c r="C71" t="s">
         <v>582</v>
@@ -10288,7 +10288,7 @@
         <v>2150</v>
       </c>
       <c r="B72" t="n">
-        <v>129586</v>
+        <v>160275</v>
       </c>
       <c r="C72" t="s">
         <v>592</v>
@@ -10363,7 +10363,7 @@
         <v>2150</v>
       </c>
       <c r="B73" t="n">
-        <v>129587</v>
+        <v>160276</v>
       </c>
       <c r="C73" t="s">
         <v>602</v>
@@ -10434,7 +10434,7 @@
         <v>2150</v>
       </c>
       <c r="B74" t="n">
-        <v>129588</v>
+        <v>160277</v>
       </c>
       <c r="C74" t="s">
         <v>612</v>
@@ -10649,7 +10649,7 @@
         <v>2150</v>
       </c>
       <c r="B77" t="n">
-        <v>129589</v>
+        <v>160278</v>
       </c>
       <c r="C77" t="s">
         <v>634</v>
@@ -10724,7 +10724,7 @@
         <v>2150</v>
       </c>
       <c r="B78" t="n">
-        <v>129590</v>
+        <v>160279</v>
       </c>
       <c r="C78" t="s">
         <v>644</v>
@@ -10874,7 +10874,7 @@
         <v>2150</v>
       </c>
       <c r="B80" t="n">
-        <v>129591</v>
+        <v>160280</v>
       </c>
       <c r="C80" t="s">
         <v>662</v>
@@ -10935,7 +10935,7 @@
         <v>2150</v>
       </c>
       <c r="B81" t="n">
-        <v>129592</v>
+        <v>160281</v>
       </c>
       <c r="C81" t="s">
         <v>671</v>
@@ -11144,7 +11144,7 @@
         <v>2150</v>
       </c>
       <c r="B84" t="n">
-        <v>129593</v>
+        <v>160282</v>
       </c>
       <c r="C84" t="s">
         <v>700</v>
@@ -11215,7 +11215,7 @@
         <v>2150</v>
       </c>
       <c r="B85" t="n">
-        <v>129594</v>
+        <v>160283</v>
       </c>
       <c r="C85" t="s">
         <v>709</v>
@@ -11286,7 +11286,7 @@
         <v>2150</v>
       </c>
       <c r="B86" t="n">
-        <v>129595</v>
+        <v>160284</v>
       </c>
       <c r="C86" t="s">
         <v>716</v>
@@ -11436,7 +11436,7 @@
         <v>2150</v>
       </c>
       <c r="B88" t="n">
-        <v>129596</v>
+        <v>160285</v>
       </c>
       <c r="C88" t="s">
         <v>733</v>
@@ -11497,7 +11497,7 @@
         <v>2150</v>
       </c>
       <c r="B89" t="n">
-        <v>129597</v>
+        <v>160286</v>
       </c>
       <c r="C89" t="s">
         <v>740</v>
@@ -11572,7 +11572,7 @@
         <v>2150</v>
       </c>
       <c r="B90" t="n">
-        <v>129598</v>
+        <v>160287</v>
       </c>
       <c r="C90" t="s">
         <v>750</v>
@@ -11643,7 +11643,7 @@
         <v>2150</v>
       </c>
       <c r="B91" t="n">
-        <v>129599</v>
+        <v>160288</v>
       </c>
       <c r="C91" t="s">
         <v>757</v>
@@ -11714,7 +11714,7 @@
         <v>2150</v>
       </c>
       <c r="B92" t="n">
-        <v>129600</v>
+        <v>160289</v>
       </c>
       <c r="C92" t="s">
         <v>766</v>
@@ -11919,7 +11919,7 @@
         <v>2150</v>
       </c>
       <c r="B95" t="n">
-        <v>129601</v>
+        <v>160290</v>
       </c>
       <c r="C95" t="s">
         <v>792</v>
@@ -11988,7 +11988,7 @@
         <v>2150</v>
       </c>
       <c r="B96" t="n">
-        <v>129602</v>
+        <v>160291</v>
       </c>
       <c r="C96" t="s">
         <v>801</v>
@@ -12132,7 +12132,7 @@
         <v>2150</v>
       </c>
       <c r="B98" t="n">
-        <v>129603</v>
+        <v>160292</v>
       </c>
       <c r="C98" t="s">
         <v>815</v>
@@ -12207,7 +12207,7 @@
         <v>2150</v>
       </c>
       <c r="B99" t="n">
-        <v>129604</v>
+        <v>160293</v>
       </c>
       <c r="C99" t="s">
         <v>824</v>
@@ -12272,7 +12272,7 @@
         <v>2150</v>
       </c>
       <c r="B100" t="n">
-        <v>129605</v>
+        <v>160294</v>
       </c>
       <c r="C100" t="s">
         <v>831</v>
@@ -12347,7 +12347,7 @@
         <v>2150</v>
       </c>
       <c r="B101" t="n">
-        <v>129606</v>
+        <v>160295</v>
       </c>
       <c r="C101" t="s">
         <v>840</v>
@@ -12497,7 +12497,7 @@
         <v>2150</v>
       </c>
       <c r="B103" t="n">
-        <v>129607</v>
+        <v>160296</v>
       </c>
       <c r="C103" t="s">
         <v>857</v>
@@ -12641,7 +12641,7 @@
         <v>2150</v>
       </c>
       <c r="B105" t="n">
-        <v>129608</v>
+        <v>160297</v>
       </c>
       <c r="C105" t="s">
         <v>876</v>
@@ -12716,7 +12716,7 @@
         <v>2150</v>
       </c>
       <c r="B106" t="n">
-        <v>129609</v>
+        <v>160298</v>
       </c>
       <c r="C106" t="s">
         <v>883</v>
@@ -12866,7 +12866,7 @@
         <v>2150</v>
       </c>
       <c r="B108" t="n">
-        <v>129610</v>
+        <v>160299</v>
       </c>
       <c r="C108" t="s">
         <v>903</v>
@@ -13085,7 +13085,7 @@
         <v>2150</v>
       </c>
       <c r="B111" t="n">
-        <v>129611</v>
+        <v>160300</v>
       </c>
       <c r="C111" t="s">
         <v>924</v>
@@ -13154,7 +13154,7 @@
         <v>2150</v>
       </c>
       <c r="B112" t="n">
-        <v>129612</v>
+        <v>160301</v>
       </c>
       <c r="C112" t="s">
         <v>931</v>
@@ -13298,7 +13298,7 @@
         <v>2150</v>
       </c>
       <c r="B114" t="n">
-        <v>129613</v>
+        <v>160302</v>
       </c>
       <c r="C114" t="s">
         <v>950</v>
@@ -13444,7 +13444,7 @@
         <v>2150</v>
       </c>
       <c r="B116" t="n">
-        <v>129614</v>
+        <v>160303</v>
       </c>
       <c r="C116" t="s">
         <v>965</v>
@@ -13519,7 +13519,7 @@
         <v>2150</v>
       </c>
       <c r="B117" t="n">
-        <v>129615</v>
+        <v>160304</v>
       </c>
       <c r="C117" t="s">
         <v>975</v>
@@ -13588,7 +13588,7 @@
         <v>2150</v>
       </c>
       <c r="B118" t="n">
-        <v>129616</v>
+        <v>160305</v>
       </c>
       <c r="C118" t="s">
         <v>983</v>
@@ -13813,7 +13813,7 @@
         <v>2150</v>
       </c>
       <c r="B121" t="n">
-        <v>129617</v>
+        <v>160306</v>
       </c>
       <c r="C121" t="s">
         <v>1008</v>
@@ -13888,7 +13888,7 @@
         <v>2150</v>
       </c>
       <c r="B122" t="n">
-        <v>129618</v>
+        <v>160307</v>
       </c>
       <c r="C122" t="s">
         <v>1017</v>
@@ -14109,7 +14109,7 @@
         <v>2150</v>
       </c>
       <c r="B125" t="n">
-        <v>129619</v>
+        <v>133202</v>
       </c>
       <c r="C125" t="s">
         <v>1039</v>
@@ -14330,7 +14330,7 @@
         <v>2150</v>
       </c>
       <c r="B128" t="n">
-        <v>129620</v>
+        <v>160308</v>
       </c>
       <c r="C128" t="s">
         <v>1062</v>
@@ -14405,7 +14405,7 @@
         <v>2150</v>
       </c>
       <c r="B129" t="n">
-        <v>129621</v>
+        <v>160309</v>
       </c>
       <c r="C129" t="s">
         <v>1072</v>
@@ -14480,7 +14480,7 @@
         <v>2150</v>
       </c>
       <c r="B130" t="n">
-        <v>129622</v>
+        <v>160310</v>
       </c>
       <c r="C130" t="s">
         <v>1079</v>
@@ -14555,7 +14555,7 @@
         <v>2150</v>
       </c>
       <c r="B131" t="n">
-        <v>129623</v>
+        <v>160311</v>
       </c>
       <c r="C131" t="s">
         <v>1086</v>
@@ -14630,7 +14630,7 @@
         <v>2150</v>
       </c>
       <c r="B132" t="n">
-        <v>129624</v>
+        <v>160312</v>
       </c>
       <c r="C132" t="s">
         <v>1096</v>
@@ -14705,7 +14705,7 @@
         <v>2150</v>
       </c>
       <c r="B133" t="n">
-        <v>129625</v>
+        <v>160313</v>
       </c>
       <c r="C133" t="s">
         <v>1103</v>
@@ -14855,7 +14855,7 @@
         <v>2150</v>
       </c>
       <c r="B135" t="n">
-        <v>129626</v>
+        <v>160314</v>
       </c>
       <c r="C135" t="s">
         <v>1121</v>
@@ -14930,7 +14930,7 @@
         <v>2150</v>
       </c>
       <c r="B136" t="n">
-        <v>129627</v>
+        <v>160315</v>
       </c>
       <c r="C136" t="s">
         <v>1130</v>
@@ -15076,7 +15076,7 @@
         <v>2150</v>
       </c>
       <c r="B138" t="n">
-        <v>129628</v>
+        <v>160316</v>
       </c>
       <c r="C138" t="s">
         <v>1144</v>
@@ -15151,7 +15151,7 @@
         <v>2150</v>
       </c>
       <c r="B139" t="n">
-        <v>129629</v>
+        <v>160317</v>
       </c>
       <c r="C139" t="s">
         <v>1153</v>
@@ -15226,7 +15226,7 @@
         <v>2150</v>
       </c>
       <c r="B140" t="n">
-        <v>129630</v>
+        <v>160318</v>
       </c>
       <c r="C140" t="s">
         <v>1160</v>
@@ -15364,7 +15364,7 @@
         <v>2150</v>
       </c>
       <c r="B142" t="n">
-        <v>129631</v>
+        <v>160319</v>
       </c>
       <c r="C142" t="s">
         <v>1173</v>
@@ -15435,7 +15435,7 @@
         <v>2150</v>
       </c>
       <c r="B143" t="n">
-        <v>129632</v>
+        <v>160320</v>
       </c>
       <c r="C143" t="s">
         <v>1178</v>
@@ -15656,7 +15656,7 @@
         <v>2150</v>
       </c>
       <c r="B146" t="n">
-        <v>129633</v>
+        <v>160321</v>
       </c>
       <c r="C146" t="s">
         <v>1199</v>
@@ -15727,7 +15727,7 @@
         <v>2150</v>
       </c>
       <c r="B147" t="n">
-        <v>129634</v>
+        <v>160322</v>
       </c>
       <c r="C147" t="s">
         <v>1207</v>
@@ -15798,7 +15798,7 @@
         <v>2150</v>
       </c>
       <c r="B148" t="n">
-        <v>129635</v>
+        <v>160323</v>
       </c>
       <c r="C148" t="s">
         <v>1213</v>
@@ -15869,7 +15869,7 @@
         <v>2150</v>
       </c>
       <c r="B149" t="n">
-        <v>129636</v>
+        <v>160324</v>
       </c>
       <c r="C149" t="s">
         <v>1219</v>
@@ -16011,7 +16011,7 @@
         <v>2150</v>
       </c>
       <c r="B151" t="n">
-        <v>129637</v>
+        <v>160325</v>
       </c>
       <c r="C151" t="s">
         <v>1233</v>
@@ -16153,7 +16153,7 @@
         <v>2150</v>
       </c>
       <c r="B153" t="n">
-        <v>129638</v>
+        <v>160326</v>
       </c>
       <c r="C153" t="s">
         <v>1248</v>
@@ -16295,7 +16295,7 @@
         <v>2150</v>
       </c>
       <c r="B155" t="n">
-        <v>129639</v>
+        <v>160327</v>
       </c>
       <c r="C155" t="s">
         <v>1260</v>
@@ -16366,7 +16366,7 @@
         <v>2150</v>
       </c>
       <c r="B156" t="n">
-        <v>129640</v>
+        <v>160328</v>
       </c>
       <c r="C156" t="s">
         <v>1268</v>
@@ -16437,7 +16437,7 @@
         <v>2150</v>
       </c>
       <c r="B157" t="n">
-        <v>129641</v>
+        <v>160329</v>
       </c>
       <c r="C157" t="s">
         <v>1275</v>
@@ -16508,7 +16508,7 @@
         <v>2150</v>
       </c>
       <c r="B158" t="n">
-        <v>129642</v>
+        <v>160330</v>
       </c>
       <c r="C158" t="s">
         <v>1283</v>
@@ -16729,7 +16729,7 @@
         <v>2150</v>
       </c>
       <c r="B161" t="n">
-        <v>129643</v>
+        <v>160331</v>
       </c>
       <c r="C161" t="s">
         <v>1309</v>
@@ -16804,7 +16804,7 @@
         <v>2150</v>
       </c>
       <c r="B162" t="n">
-        <v>129644</v>
+        <v>160332</v>
       </c>
       <c r="C162" t="s">
         <v>1319</v>
@@ -16879,7 +16879,7 @@
         <v>2150</v>
       </c>
       <c r="B163" t="n">
-        <v>129645</v>
+        <v>160333</v>
       </c>
       <c r="C163" t="s">
         <v>1325</v>
@@ -16954,7 +16954,7 @@
         <v>2150</v>
       </c>
       <c r="B164" t="n">
-        <v>129646</v>
+        <v>160334</v>
       </c>
       <c r="C164" t="s">
         <v>1333</v>
@@ -17090,7 +17090,7 @@
         <v>2150</v>
       </c>
       <c r="B166" t="n">
-        <v>129647</v>
+        <v>160335</v>
       </c>
       <c r="C166" t="s">
         <v>1349</v>
@@ -17161,7 +17161,7 @@
         <v>2150</v>
       </c>
       <c r="B167" t="n">
-        <v>129648</v>
+        <v>160336</v>
       </c>
       <c r="C167" t="s">
         <v>1357</v>
@@ -17232,7 +17232,7 @@
         <v>2150</v>
       </c>
       <c r="B168" t="n">
-        <v>129649</v>
+        <v>160337</v>
       </c>
       <c r="C168" t="s">
         <v>1364</v>
@@ -17307,7 +17307,7 @@
         <v>2150</v>
       </c>
       <c r="B169" t="n">
-        <v>129650</v>
+        <v>160338</v>
       </c>
       <c r="C169" t="s">
         <v>1373</v>
@@ -17378,7 +17378,7 @@
         <v>2150</v>
       </c>
       <c r="B170" t="n">
-        <v>129651</v>
+        <v>160339</v>
       </c>
       <c r="C170" t="s">
         <v>1379</v>
@@ -17449,7 +17449,7 @@
         <v>2150</v>
       </c>
       <c r="B171" t="n">
-        <v>129652</v>
+        <v>160340</v>
       </c>
       <c r="C171" t="s">
         <v>1386</v>
@@ -17520,7 +17520,7 @@
         <v>2150</v>
       </c>
       <c r="B172" t="n">
-        <v>129653</v>
+        <v>160341</v>
       </c>
       <c r="C172" t="s">
         <v>1392</v>
@@ -17577,7 +17577,7 @@
         <v>2150</v>
       </c>
       <c r="B173" t="n">
-        <v>129654</v>
+        <v>160342</v>
       </c>
       <c r="C173" t="s">
         <v>1398</v>
@@ -17644,7 +17644,7 @@
         <v>2150</v>
       </c>
       <c r="B174" t="n">
-        <v>129655</v>
+        <v>160343</v>
       </c>
       <c r="C174" t="s">
         <v>1405</v>
@@ -17715,7 +17715,7 @@
         <v>2150</v>
       </c>
       <c r="B175" t="n">
-        <v>129656</v>
+        <v>160344</v>
       </c>
       <c r="C175" t="s">
         <v>1412</v>
@@ -17786,7 +17786,7 @@
         <v>2150</v>
       </c>
       <c r="B176" t="n">
-        <v>129657</v>
+        <v>160345</v>
       </c>
       <c r="C176" t="s">
         <v>1418</v>
@@ -17855,7 +17855,7 @@
         <v>2150</v>
       </c>
       <c r="B177" t="n">
-        <v>129658</v>
+        <v>160346</v>
       </c>
       <c r="C177" t="s">
         <v>1426</v>
@@ -17924,7 +17924,7 @@
         <v>2150</v>
       </c>
       <c r="B178" t="n">
-        <v>129659</v>
+        <v>160347</v>
       </c>
       <c r="C178" t="s">
         <v>1434</v>
@@ -17985,7 +17985,7 @@
         <v>2150</v>
       </c>
       <c r="B179" t="n">
-        <v>129660</v>
+        <v>160348</v>
       </c>
       <c r="C179" t="s">
         <v>1440</v>
@@ -18052,7 +18052,7 @@
         <v>2150</v>
       </c>
       <c r="B180" t="n">
-        <v>129661</v>
+        <v>160349</v>
       </c>
       <c r="C180" t="s">
         <v>1448</v>
@@ -18119,7 +18119,7 @@
         <v>2150</v>
       </c>
       <c r="B181" t="n">
-        <v>129662</v>
+        <v>160350</v>
       </c>
       <c r="C181" t="s">
         <v>1456</v>
@@ -18190,7 +18190,7 @@
         <v>2150</v>
       </c>
       <c r="B182" t="n">
-        <v>129663</v>
+        <v>160351</v>
       </c>
       <c r="C182" t="s">
         <v>1464</v>
@@ -18261,7 +18261,7 @@
         <v>2150</v>
       </c>
       <c r="B183" t="n">
-        <v>129664</v>
+        <v>160352</v>
       </c>
       <c r="C183" t="s">
         <v>1470</v>
@@ -18332,7 +18332,7 @@
         <v>2150</v>
       </c>
       <c r="B184" t="n">
-        <v>129665</v>
+        <v>160353</v>
       </c>
       <c r="C184" t="s">
         <v>1477</v>
@@ -18474,7 +18474,7 @@
         <v>2150</v>
       </c>
       <c r="B186" t="n">
-        <v>129666</v>
+        <v>160354</v>
       </c>
       <c r="C186" t="s">
         <v>1491</v>
@@ -18545,7 +18545,7 @@
         <v>2150</v>
       </c>
       <c r="B187" t="n">
-        <v>129667</v>
+        <v>160355</v>
       </c>
       <c r="C187" t="s">
         <v>1499</v>
@@ -18616,7 +18616,7 @@
         <v>2150</v>
       </c>
       <c r="B188" t="n">
-        <v>129668</v>
+        <v>160356</v>
       </c>
       <c r="C188" t="s">
         <v>1507</v>
@@ -18687,7 +18687,7 @@
         <v>2150</v>
       </c>
       <c r="B189" t="n">
-        <v>129669</v>
+        <v>160357</v>
       </c>
       <c r="C189" t="s">
         <v>1515</v>
@@ -18758,7 +18758,7 @@
         <v>2150</v>
       </c>
       <c r="B190" t="n">
-        <v>129670</v>
+        <v>160358</v>
       </c>
       <c r="C190" t="s">
         <v>1522</v>
@@ -18829,7 +18829,7 @@
         <v>2150</v>
       </c>
       <c r="B191" t="n">
-        <v>129671</v>
+        <v>160359</v>
       </c>
       <c r="C191" t="s">
         <v>1530</v>
@@ -18900,7 +18900,7 @@
         <v>2150</v>
       </c>
       <c r="B192" t="n">
-        <v>129672</v>
+        <v>160360</v>
       </c>
       <c r="C192" t="s">
         <v>1538</v>
@@ -18969,7 +18969,7 @@
         <v>2150</v>
       </c>
       <c r="B193" t="n">
-        <v>129673</v>
+        <v>160361</v>
       </c>
       <c r="C193" t="s">
         <v>1545</v>
@@ -19038,7 +19038,7 @@
         <v>2150</v>
       </c>
       <c r="B194" t="n">
-        <v>129674</v>
+        <v>160362</v>
       </c>
       <c r="C194" t="s">
         <v>1552</v>
@@ -19109,7 +19109,7 @@
         <v>2150</v>
       </c>
       <c r="B195" t="n">
-        <v>129675</v>
+        <v>160363</v>
       </c>
       <c r="C195" t="s">
         <v>1558</v>
@@ -19178,7 +19178,7 @@
         <v>2150</v>
       </c>
       <c r="B196" t="n">
-        <v>129676</v>
+        <v>160364</v>
       </c>
       <c r="C196" t="s">
         <v>1564</v>
@@ -19247,7 +19247,7 @@
         <v>2150</v>
       </c>
       <c r="B197" t="n">
-        <v>129677</v>
+        <v>160365</v>
       </c>
       <c r="C197" t="s">
         <v>1571</v>
